--- a/python/two/Error t1=6 t2=5 δ=0.4.xlsx
+++ b/python/two/Error t1=6 t2=5 δ=0.4.xlsx
@@ -493,32 +493,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.86e+00</t>
+          <t>5.97e+00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>0.461</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.99e+00</t>
+          <t>6.05e+00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>-0.835</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>6.02e+00</t>
+          <t>6.05e+00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-0.254</t>
+          <t>-0.803</t>
         </is>
       </c>
     </row>
@@ -540,12 +540,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.04e+00</t>
+          <t>1.00e+00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-0.849</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -560,12 +560,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>4.33e+00</t>
+          <t>1.00e+00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>13.4</t>
+          <t>80.0</t>
         </is>
       </c>
     </row>
@@ -582,17 +582,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.99e-05</t>
+          <t>4.98e-05</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.00e-04</t>
+          <t>1.01e-04</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-1.14</t>
+          <t>79.9</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -607,12 +607,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1.00e-04</t>
+          <t>1.01e-04</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>13.1</t>
+          <t>79.7</t>
         </is>
       </c>
     </row>
@@ -634,32 +634,32 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.99e-01</t>
+          <t>6.16e-01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-150.0</t>
+          <t>-53.9</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.86e-01</t>
+          <t>5.97e-01</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-46.4</t>
+          <t>-49.3</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>4.22e-01</t>
+          <t>6.31e-01</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-5.38</t>
+          <t>-57.8</t>
         </is>
       </c>
     </row>
@@ -676,27 +676,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8.74e-01</t>
+          <t>8.84e-01</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>8.81e-01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>-0.0615</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>8.79e-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0.101</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.79e-01</t>
-        </is>
-      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0663</t>
+          <t>0.0673</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.0403</t>
+          <t>0.00805</t>
         </is>
       </c>
     </row>

--- a/python/two/Error t1=6 t2=5 δ=0.4.xlsx
+++ b/python/two/Error t1=6 t2=5 δ=0.4.xlsx
@@ -480,22 +480,22 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>5.93</v>
+        <v>5.97</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.14</v>
+        <v>-0.421</v>
       </c>
       <c r="E2" t="n">
-        <v>5.9</v>
+        <v>6.14</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.63</v>
+        <v>2.26</v>
       </c>
       <c r="G2" t="n">
-        <v>6.01</v>
+        <v>5.95</v>
       </c>
       <c r="H2" t="n">
-        <v>0.104</v>
+        <v>-0.785</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +508,22 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>4.61</v>
+        <v>5.56</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.8</v>
+        <v>11.2</v>
       </c>
       <c r="E3" t="n">
-        <v>5.13</v>
+        <v>5.22</v>
       </c>
       <c r="F3" t="n">
-        <v>2.64</v>
+        <v>4.35</v>
       </c>
       <c r="G3" t="n">
-        <v>4.35</v>
+        <v>2.83</v>
       </c>
       <c r="H3" t="n">
-        <v>-12.9</v>
+        <v>-43.5</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +536,22 @@
         <v>0.0001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.000101</v>
+        <v>0.0001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.658</v>
+        <v>0.0992</v>
       </c>
       <c r="E4" t="n">
         <v>0.000101</v>
       </c>
       <c r="F4" t="n">
-        <v>0.888</v>
+        <v>0.641</v>
       </c>
       <c r="G4" t="n">
         <v>0.000101</v>
       </c>
       <c r="H4" t="n">
-        <v>0.772</v>
+        <v>0.704</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +564,22 @@
         <v>0.4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.472</v>
+        <v>0.162</v>
       </c>
       <c r="D5" t="n">
-        <v>17.9</v>
+        <v>-59.6</v>
       </c>
       <c r="E5" t="n">
-        <v>0.409</v>
+        <v>0.259</v>
       </c>
       <c r="F5" t="n">
-        <v>2.29</v>
+        <v>-35.2</v>
       </c>
       <c r="G5" t="n">
-        <v>0.355</v>
+        <v>0.518</v>
       </c>
       <c r="H5" t="n">
-        <v>-11.2</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +592,22 @@
         <v>0.88</v>
       </c>
       <c r="C6" t="n">
-        <v>0.88</v>
+        <v>0.879</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0129</v>
+        <v>-0.162</v>
       </c>
       <c r="E6" t="n">
-        <v>0.878</v>
+        <v>0.881</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.218</v>
+        <v>0.138</v>
       </c>
       <c r="G6" t="n">
-        <v>0.879</v>
+        <v>0.877</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.155</v>
+        <v>-0.303</v>
       </c>
     </row>
     <row r="7">
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>3.07</v>
+        <v>4.31</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3.59</v>
+        <v>2.28</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.39</v>
+        <v>3.71</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -654,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0158</v>
+        <v>0.0221</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.0184</v>
+        <v>0.0117</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.0225</v>
+        <v>0.019</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>

--- a/python/two/Error t1=6 t2=5 δ=0.4.xlsx
+++ b/python/two/Error t1=6 t2=5 δ=0.4.xlsx
@@ -480,22 +480,22 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>5.97</v>
+        <v>5.99</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.421</v>
+        <v>-0.184</v>
       </c>
       <c r="E2" t="n">
-        <v>6.14</v>
+        <v>5.88</v>
       </c>
       <c r="F2" t="n">
-        <v>2.26</v>
+        <v>-2.07</v>
       </c>
       <c r="G2" t="n">
-        <v>5.95</v>
+        <v>6.07</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.785</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +508,22 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>5.56</v>
+        <v>4.32</v>
       </c>
       <c r="D3" t="n">
-        <v>11.2</v>
+        <v>-13.6</v>
       </c>
       <c r="E3" t="n">
-        <v>5.22</v>
+        <v>5.61</v>
       </c>
       <c r="F3" t="n">
-        <v>4.35</v>
+        <v>12.2</v>
       </c>
       <c r="G3" t="n">
-        <v>2.83</v>
+        <v>2.94</v>
       </c>
       <c r="H3" t="n">
-        <v>-43.5</v>
+        <v>-41.3</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +536,22 @@
         <v>0.0001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001</v>
+        <v>0.000101</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0992</v>
+        <v>0.715</v>
       </c>
       <c r="E4" t="n">
         <v>0.000101</v>
       </c>
       <c r="F4" t="n">
-        <v>0.641</v>
+        <v>0.51</v>
       </c>
       <c r="G4" t="n">
         <v>0.000101</v>
       </c>
       <c r="H4" t="n">
-        <v>0.704</v>
+        <v>0.9350000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +564,22 @@
         <v>0.4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.162</v>
+        <v>0.425</v>
       </c>
       <c r="D5" t="n">
-        <v>-59.6</v>
+        <v>6.35</v>
       </c>
       <c r="E5" t="n">
-        <v>0.259</v>
+        <v>0.312</v>
       </c>
       <c r="F5" t="n">
-        <v>-35.2</v>
+        <v>-22.1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.518</v>
+        <v>0.532</v>
       </c>
       <c r="H5" t="n">
-        <v>29.5</v>
+        <v>32.9</v>
       </c>
     </row>
     <row r="6">
@@ -595,19 +595,19 @@
         <v>0.879</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.162</v>
+        <v>-0.07870000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>0.881</v>
+        <v>0.879</v>
       </c>
       <c r="F6" t="n">
-        <v>0.138</v>
+        <v>-0.115</v>
       </c>
       <c r="G6" t="n">
-        <v>0.877</v>
+        <v>0.88</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.303</v>
+        <v>-0.0504</v>
       </c>
     </row>
     <row r="7">
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>4.31</v>
+        <v>3.16</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2.28</v>
+        <v>3.5</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.71</v>
+        <v>3.32</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -654,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0221</v>
+        <v>0.0162</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.0117</v>
+        <v>0.018</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.019</v>
+        <v>0.017</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>

--- a/python/two/Error t1=6 t2=5 δ=0.4.xlsx
+++ b/python/two/Error t1=6 t2=5 δ=0.4.xlsx
@@ -480,22 +480,22 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>5.99</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.184</v>
+        <v>1.86e-10</v>
       </c>
       <c r="E2" t="n">
-        <v>5.88</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.07</v>
+        <v>1.86e-10</v>
       </c>
       <c r="G2" t="n">
-        <v>6.07</v>
+        <v>6</v>
       </c>
       <c r="H2" t="n">
-        <v>1.09</v>
+        <v>1.86e-10</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +508,22 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>4.32</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>-13.6</v>
+        <v>1.29e-08</v>
       </c>
       <c r="E3" t="n">
-        <v>5.61</v>
+        <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>12.2</v>
+        <v>1.29e-08</v>
       </c>
       <c r="G3" t="n">
-        <v>2.94</v>
+        <v>5</v>
       </c>
       <c r="H3" t="n">
-        <v>-41.3</v>
+        <v>1.29e-08</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +536,22 @@
         <v>0.0001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.000101</v>
+        <v>0.0001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.715</v>
+        <v>8.94e-12</v>
       </c>
       <c r="E4" t="n">
-        <v>0.000101</v>
+        <v>0.0001</v>
       </c>
       <c r="F4" t="n">
-        <v>0.51</v>
+        <v>8.94e-12</v>
       </c>
       <c r="G4" t="n">
-        <v>0.000101</v>
+        <v>0.0001</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9350000000000001</v>
+        <v>8.94e-12</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +564,22 @@
         <v>0.4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.425</v>
+        <v>0.4</v>
       </c>
       <c r="D5" t="n">
-        <v>6.35</v>
+        <v>-2.81e-08</v>
       </c>
       <c r="E5" t="n">
-        <v>0.312</v>
+        <v>0.4</v>
       </c>
       <c r="F5" t="n">
-        <v>-22.1</v>
+        <v>-2.81e-08</v>
       </c>
       <c r="G5" t="n">
-        <v>0.532</v>
+        <v>0.4</v>
       </c>
       <c r="H5" t="n">
-        <v>32.9</v>
+        <v>-2.81e-08</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +592,22 @@
         <v>0.88</v>
       </c>
       <c r="C6" t="n">
-        <v>0.879</v>
+        <v>0.88</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.07870000000000001</v>
+        <v>1.03e-11</v>
       </c>
       <c r="E6" t="n">
-        <v>0.879</v>
+        <v>0.88</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.115</v>
+        <v>1.03e-11</v>
       </c>
       <c r="G6" t="n">
         <v>0.88</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.0504</v>
+        <v>1.03e-11</v>
       </c>
     </row>
     <row r="7">
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>3.16</v>
+        <v>4.09e-22</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3.5</v>
+        <v>4.09e-22</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.32</v>
+        <v>4.09e-22</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -654,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0162</v>
+        <v>2.1e-24</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.018</v>
+        <v>2.1e-24</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.017</v>
+        <v>2.1e-24</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
